--- a/Question_Set2/Software skills/Linux.xlsx
+++ b/Question_Set2/Software skills/Linux.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are trying to access a Domain Name System (DNS) record on Linux. You want to verify that the domain’s DNS record contains a certain TXT record. How can you verify this on Linux?', 'ques_type': 2, 'options': ['Use the dig command.', 'Run hostname on the domain’s IP address.', 'Connect to the DNS nameserver with OpenSSL.', 'Look up the domain with a WHOIS query.'], 'score': 'Use the dig command.'}, {'title': 'You found a bug in the Linux kernel and wish to create a patch so it will work as it should. The change is simple and does not require any low-level functionality. What programming language should you use to write your patch?', 'ques_type': 2, 'options': ['Rust', 'Python', 'C', 'C++'], 'score': 'C'}, {'title': 'You are planning to write a script to automate common tasks on your machine. Because the script will be run on a variety of systems you do not control, you want it to work across a variety of different Linux distributions without the need to install an additional interpreter.  What can you do to make the script as cross-compatible as possible?', 'ques_type': 2, 'options': ['Compile the script to ARM assembly with LLVM.', 'Compile the script to x86 assembly with GNU Compiler Collection (GCC).', 'Write the script as a Bourne Again Shell script (/bin/bash).', 'Write the script as a Bourne Shell script (/bin/sh).'], 'score': 'Write the script as a Bourne Shell script (/bin/sh).'}, {'title': 'A hacker has breached a Linux system you operate and exfiltrated the /etc/passwd file. After securing the system to prevent further breaches, you are tasked with assessing the damage an attacker could do with this file. True or false: This file will give the attacker hashes of users’ passwords from the breached system.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}]</t>
+    <t>questions = [
+    {
+        "title": "You are trying to access a Domain Name System (DNS) record on Linux. You want to verify that the domain\u2019s DNS record contains a certain TXT record. How can you verify this on Linux?",
+        "ques_type": 2,
+        "options": [
+            "Use the dig command.",
+            "Run hostname on the domain\u2019s IP address.",
+            "Connect to the DNS nameserver with OpenSSL.",
+            "Look up the domain with a WHOIS query."
+        ],
+        "score": "Use the dig command."
+    },
+    {
+        "title": "You found a bug in the Linux kernel and wish to create a patch so it will work as it should. The change is simple and does not require any low-level functionality. What programming language should you use to write your patch?",
+        "ques_type": 2,
+        "options": [
+            "Rust",
+            "Python",
+            "C",
+            "C++"
+        ],
+        "score": "C"
+    },
+    {
+        "title": "You are planning to write a script to automate common tasks on your machine. Because the script will be run on a variety of systems you do not control, you want it to work across a variety of different Linux distributions without the need to install an additional interpreter.  What can you do to make the script as cross-compatible as possible?",
+        "ques_type": 2,
+        "options": [
+            "Compile the script to ARM assembly with LLVM.",
+            "Compile the script to x86 assembly with GNU Compiler Collection (GCC).",
+            "Write the script as a Bourne Again Shell script (/bin/bash).",
+            "Write the script as a Bourne Shell script (/bin/sh)."
+        ],
+        "score": "Write the script as a Bourne Shell script (/bin/sh)."
+    },
+    {
+        "title": "A hacker has breached a Linux system you operate and exfiltrated the /etc/passwd file. After securing the system to prevent further breaches, you are tasked with assessing the damage an attacker could do with this file. True or false: This file will give the attacker hashes of users\u2019 passwords from the breached system.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
